--- a/Project 2/var labels.xlsx
+++ b/Project 2/var labels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshy\Desktop\springboard\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3690DC6E-90DB-4964-BC57-8414A53F73A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9E090C-939F-4423-A632-F03A46FCFB42}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="18270" windowHeight="7540" activeTab="1" xr2:uid="{9E821ED2-D958-4333-833D-359E26F78B21}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="18270" windowHeight="7540" activeTab="1" xr2:uid="{9E821ED2-D958-4333-833D-359E26F78B21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1013">
   <si>
     <t>Table 10 { continued from previous page</t>
   </si>
@@ -2182,21 +2182,9 @@
     <t>('CC16_331_9', 0)</t>
   </si>
   <si>
-    <t>('CC16_366x_t', 0)</t>
-  </si>
-  <si>
     <t>('employ', 0)</t>
   </si>
   <si>
-    <t>('religpew_advent_t', 0)</t>
-  </si>
-  <si>
-    <t>('religpew_mormon_t', 0)</t>
-  </si>
-  <si>
-    <t>('religpew_orthodox_t', 0)</t>
-  </si>
-  <si>
     <t>('milstat_1', 0)</t>
   </si>
   <si>
@@ -2239,99 +2227,21 @@
     <t>('endtime_pre', 0)</t>
   </si>
   <si>
-    <t>('CC16_364b_t', 1)</t>
-  </si>
-  <si>
-    <t>('religpew_reformed_t', 1)</t>
-  </si>
-  <si>
-    <t>('religpew_christian_t', 2)</t>
-  </si>
-  <si>
-    <t>('Asian_origin_t', 3)</t>
-  </si>
-  <si>
-    <t>('CC16_366_t', 3)</t>
-  </si>
-  <si>
-    <t>('religpew_congreg_t', 3)</t>
-  </si>
-  <si>
-    <t>('religpew_jewish_t', 4)</t>
-  </si>
-  <si>
-    <t>('CC16_365x_t', 5)</t>
-  </si>
-  <si>
-    <t>('CC16_367x_t', 5)</t>
-  </si>
-  <si>
-    <t>('religpew_episcop_t', 6)</t>
-  </si>
-  <si>
-    <t>('religpew_muslim_t', 6)</t>
-  </si>
-  <si>
-    <t>('religpew_methodist_t', 7)</t>
-  </si>
-  <si>
-    <t>('religpew_holiness_t', 7)</t>
-  </si>
-  <si>
-    <t>('race_other', 9)</t>
-  </si>
-  <si>
-    <t>('religpew_buddhist_t', 10)</t>
-  </si>
-  <si>
-    <t>('Hispanic_origin_t', 12)</t>
-  </si>
-  <si>
-    <t>('religpew_hindu_t', 13)</t>
-  </si>
-  <si>
-    <t>('religpew_nondenom_t', 18)</t>
-  </si>
-  <si>
-    <t>('religpew_presby_t', 18)</t>
-  </si>
-  <si>
     <t>('CC16_351K', 19)</t>
   </si>
   <si>
     <t>('pid3', 20)</t>
   </si>
   <si>
-    <t>('religpew_protestant_t', 21)</t>
-  </si>
-  <si>
     <t>('faminc', 21)</t>
   </si>
   <si>
     <t>('CC16_320a', 22)</t>
   </si>
   <si>
-    <t>('religpew_lutheran_t', 25)</t>
-  </si>
-  <si>
-    <t>('CC16_366a_t', 28)</t>
-  </si>
-  <si>
-    <t>('pid3_t', 28)</t>
-  </si>
-  <si>
-    <t>('religpew_pentecost_t', 28)</t>
-  </si>
-  <si>
-    <t>('religpew_catholic_t', 29)</t>
-  </si>
-  <si>
     <t>('CC16_320c', 31)</t>
   </si>
   <si>
-    <t>('CC16_364c_t', 31)</t>
-  </si>
-  <si>
     <t>('CC16_334a', 32)</t>
   </si>
   <si>
@@ -2344,9 +2254,6 @@
     <t>('pew_churatd', 33)</t>
   </si>
   <si>
-    <t>('CC16_365_t', 34)</t>
-  </si>
-  <si>
     <t>('pew_religimp', 34)</t>
   </si>
   <si>
@@ -2359,9 +2266,6 @@
     <t>('CC16_334d', 42)</t>
   </si>
   <si>
-    <t>('employ_t', 42)</t>
-  </si>
-  <si>
     <t>('pew_bornagain', 43)</t>
   </si>
   <si>
@@ -2389,9 +2293,6 @@
     <t>('CC16_333a', 60)</t>
   </si>
   <si>
-    <t>('CC16_367_t', 60)</t>
-  </si>
-  <si>
     <t>('CC16_332a', 62)</t>
   </si>
   <si>
@@ -2428,15 +2329,9 @@
     <t>('countyname', 84)</t>
   </si>
   <si>
-    <t>('religpew_baptist_t', 86)</t>
-  </si>
-  <si>
     <t>('CC16_332f', 87)</t>
   </si>
   <si>
-    <t>('CC16_326_t', 90)</t>
-  </si>
-  <si>
     <t>('CC16_351I', 91)</t>
   </si>
   <si>
@@ -2455,9 +2350,6 @@
     <t>('CC16_302', 117)</t>
   </si>
   <si>
-    <t>('CC16_365a_t', 118)</t>
-  </si>
-  <si>
     <t>('child18', 118)</t>
   </si>
   <si>
@@ -2476,15 +2368,9 @@
     <t>('CC16_327', 145)</t>
   </si>
   <si>
-    <t>('CC16_367a_t', 158)</t>
-  </si>
-  <si>
     <t>('immstat', 158)</t>
   </si>
   <si>
-    <t>('religpew_t', 172)</t>
-  </si>
-  <si>
     <t>('CurrentGovName', 192)</t>
   </si>
   <si>
@@ -2524,9 +2410,6 @@
     <t>('CC16_351F', 205)</t>
   </si>
   <si>
-    <t>('ownhome_t', 211)</t>
-  </si>
-  <si>
     <t>('CC16_340c', 214)</t>
   </si>
   <si>
@@ -2557,9 +2440,6 @@
     <t>('CC16_351H', 275)</t>
   </si>
   <si>
-    <t>('whatkindofwork', 290)</t>
-  </si>
-  <si>
     <t>('CC16_340d', 326)</t>
   </si>
   <si>
@@ -2602,9 +2482,6 @@
     <t>('CC16_321c', 613)</t>
   </si>
   <si>
-    <t>('jobactivities', 640)</t>
-  </si>
-  <si>
     <t>('CC16_340b', 641)</t>
   </si>
   <si>
@@ -2722,9 +2599,6 @@
     <t>part of a multiple choice question, some weren't asked to everyone for some reason</t>
   </si>
   <si>
-    <t>Governor vote</t>
-  </si>
-  <si>
     <t>employment status</t>
   </si>
   <si>
@@ -2776,9 +2650,6 @@
     <t>('SenCand2Incumbent_post', 11701)</t>
   </si>
   <si>
-    <t>('CC16_411_nv_t', 11701)</t>
-  </si>
-  <si>
     <t>('CC16_414_1', 11701)</t>
   </si>
   <si>
@@ -2827,48 +2698,6 @@
     <t>('CC16_421a', 11703)</t>
   </si>
   <si>
-    <t>('CC16_423c_other', 11704)</t>
-  </si>
-  <si>
-    <t>('CC16_411_t', 11708)</t>
-  </si>
-  <si>
-    <t>('CC16_410b_nv_t', 11709)</t>
-  </si>
-  <si>
-    <t>('CC16_402a_t', 11712)</t>
-  </si>
-  <si>
-    <t>('CC16_418b_t', 11712)</t>
-  </si>
-  <si>
-    <t>('CC16_423a_other', 11712)</t>
-  </si>
-  <si>
-    <t>('CC16_406b_t', 11713)</t>
-  </si>
-  <si>
-    <t>('CC16_410a_nv_t', 11713)</t>
-  </si>
-  <si>
-    <t>('CC16_412_nv_t', 11714)</t>
-  </si>
-  <si>
-    <t>('CC16_423b_other', 11717)</t>
-  </si>
-  <si>
-    <t>('CC16_407b', 11726)</t>
-  </si>
-  <si>
-    <t>('CC16_402b_t', 11728)</t>
-  </si>
-  <si>
-    <t>('CC16_417bx_t2', 11729)</t>
-  </si>
-  <si>
-    <t>('CC16_410a_t', 11743)</t>
-  </si>
-  <si>
     <t>('CC16_422d', 11763)</t>
   </si>
   <si>
@@ -2878,15 +2707,6 @@
     <t>('CC16_422c', 11766)</t>
   </si>
   <si>
-    <t>('CC16_412_t', 11773)</t>
-  </si>
-  <si>
-    <t>('CC16_410b_t', 11776)</t>
-  </si>
-  <si>
-    <t>('CC16_404_t', 11793)</t>
-  </si>
-  <si>
     <t>('CC16_427_a', 11809)</t>
   </si>
   <si>
@@ -2944,9 +2764,6 @@
     <t>('CC16_426_3', 11868)</t>
   </si>
   <si>
-    <t>('CC16_421_t', 11871)</t>
-  </si>
-  <si>
     <t>('CC16_426_5', 11873)</t>
   </si>
   <si>
@@ -2962,9 +2779,6 @@
     <t>('CC16_426_4', 11908)</t>
   </si>
   <si>
-    <t>('CC16_417bx_t1', 12011)</t>
-  </si>
-  <si>
     <t>('CC16_427_f', 12035)</t>
   </si>
   <si>
@@ -3001,18 +2815,12 @@
     <t>('CC16_326', 16061)</t>
   </si>
   <si>
-    <t>('regzip_confirm_post', 16411)</t>
-  </si>
-  <si>
     <t>('trans', 8320)</t>
   </si>
   <si>
     <t>categories include full-time, student, retired, homemaker, unemployed</t>
   </si>
   <si>
-    <t>adventist church</t>
-  </si>
-  <si>
     <t>military status - I am serving</t>
   </si>
   <si>
@@ -3046,24 +2854,6 @@
     <t>matched to voter file</t>
   </si>
   <si>
-    <t xml:space="preserve">write in pres vote </t>
-  </si>
-  <si>
-    <t>asian origin - none</t>
-  </si>
-  <si>
-    <t>governor preference</t>
-  </si>
-  <si>
-    <t>senate vote - write in</t>
-  </si>
-  <si>
-    <t>house vote - write in</t>
-  </si>
-  <si>
-    <t>Race - other</t>
-  </si>
-  <si>
     <t>minimum wage to $12 - yes/no</t>
   </si>
   <si>
@@ -3073,36 +2863,18 @@
     <t>family income</t>
   </si>
   <si>
-    <t>6500 "prefer not to say". It's in bins</t>
-  </si>
-  <si>
     <t>Obama approval (strongly, somewhat approve…)</t>
   </si>
   <si>
     <t xml:space="preserve">probably too partisan </t>
   </si>
   <si>
-    <t>governor 2nd choice write in</t>
-  </si>
-  <si>
-    <t>Party ID - write in</t>
-  </si>
-  <si>
-    <t>no lol</t>
-  </si>
-  <si>
-    <t>Conserverative, socilist, theocrat, who evers best</t>
-  </si>
-  <si>
     <t>approve of job- SCOTUS</t>
   </si>
   <si>
     <t>no?</t>
   </si>
   <si>
-    <t>presidential preference - open</t>
-  </si>
-  <si>
     <t>eliminate mandatory minimums for non-violent drug - yes/no</t>
   </si>
   <si>
@@ -3115,9 +2887,6 @@
     <t>like 85% say yes</t>
   </si>
   <si>
-    <t>senate pref - open</t>
-  </si>
-  <si>
     <t>religion importance</t>
   </si>
   <si>
@@ -3130,9 +2899,6 @@
     <t>three strikes law- yes or no</t>
   </si>
   <si>
-    <t>employ status - open</t>
-  </si>
-  <si>
     <t>Born again?</t>
   </si>
   <si>
@@ -3158,6 +2924,147 @@
   </si>
   <si>
     <t>Which party has majority in senate?</t>
+  </si>
+  <si>
+    <t>give EPA power to regulate CO2 yes/no</t>
+  </si>
+  <si>
+    <t>always allow abortion as matter of choice- yes/no</t>
+  </si>
+  <si>
+    <t>allow employes to decline coverage of abortions - yes/no</t>
+  </si>
+  <si>
+    <t>prohibit federal spending on abortion - yes/no</t>
+  </si>
+  <si>
+    <t>did they vote in 2012</t>
+  </si>
+  <si>
+    <t>p not</t>
+  </si>
+  <si>
+    <t>require renewables in electricity - yes/no</t>
+  </si>
+  <si>
+    <t>frequency of prayer</t>
+  </si>
+  <si>
+    <t>household income change (increase/decrease/stay same)</t>
+  </si>
+  <si>
+    <t>what religion are you</t>
+  </si>
+  <si>
+    <t>own, rent, other</t>
+  </si>
+  <si>
+    <t>prohibit abortion after 20 weeks</t>
+  </si>
+  <si>
+    <t>county fips code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">county name </t>
+  </si>
+  <si>
+    <t>legislature name</t>
+  </si>
+  <si>
+    <t>ban abortion always yes/no</t>
+  </si>
+  <si>
+    <t>repeal ACA</t>
+  </si>
+  <si>
+    <t>permit abortion only in case of rape, incest, life in danger</t>
+  </si>
+  <si>
+    <t>how do police make you feel</t>
+  </si>
+  <si>
+    <t>collapse into two options (four point scale)?</t>
+  </si>
+  <si>
+    <t>how long at current address</t>
+  </si>
+  <si>
+    <t>voting intention</t>
+  </si>
+  <si>
+    <t>depends whether I use post or pre</t>
+  </si>
+  <si>
+    <t>perception of economy</t>
+  </si>
+  <si>
+    <t>parent or guardian of child under 18</t>
+  </si>
+  <si>
+    <t>support for TPP</t>
+  </si>
+  <si>
+    <t>over next year, prediction for economy</t>
+  </si>
+  <si>
+    <t>repeal no child left behind yes/no</t>
+  </si>
+  <si>
+    <t>member of labor union</t>
+  </si>
+  <si>
+    <t>did you vote in primary/caucus</t>
+  </si>
+  <si>
+    <t>political engagement</t>
+  </si>
+  <si>
+    <t>immigration status</t>
+  </si>
+  <si>
+    <t>citizen, non-citizen, first, 2nd, 3rd gen</t>
+  </si>
+  <si>
+    <t>type of internet at home</t>
+  </si>
+  <si>
+    <t>Iran sanctions bill - yes/on</t>
+  </si>
+  <si>
+    <t>bill to authorize 305b for infrastructure spending</t>
+  </si>
+  <si>
+    <t>rating of obama's ideology</t>
+  </si>
+  <si>
+    <t>approval of senator 2</t>
+  </si>
+  <si>
+    <t>background checks for guns - yes/no</t>
+  </si>
+  <si>
+    <t>approve of governor</t>
+  </si>
+  <si>
+    <t>approve of senator</t>
+  </si>
+  <si>
+    <t>approve of legislature</t>
+  </si>
+  <si>
+    <t>knowledge of chamber party</t>
+  </si>
+  <si>
+    <t>7 point ideology</t>
+  </si>
+  <si>
+    <t>probably prefer the ones with smaller scales</t>
+  </si>
+  <si>
+    <t>rating of Trump's ideology</t>
+  </si>
+  <si>
+    <t>Medicare reform act - yes/no</t>
   </si>
 </sst>
 </file>
@@ -6926,17 +6833,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B457ADF-3B58-45F8-8A37-FD8A6560F8E8}">
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.36328125" customWidth="1"/>
-    <col min="2" max="2" width="58.08984375" customWidth="1"/>
-    <col min="4" max="4" width="50.54296875" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" customWidth="1"/>
+    <col min="4" max="4" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -6955,7 +6862,7 @@
         <v>666</v>
       </c>
       <c r="B2" t="s">
-        <v>886</v>
+        <v>845</v>
       </c>
       <c r="C2" t="s">
         <v>643</v>
@@ -6974,7 +6881,7 @@
         <v>668</v>
       </c>
       <c r="B4" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="C4" t="s">
         <v>644</v>
@@ -6993,7 +6900,7 @@
         <v>670</v>
       </c>
       <c r="B6" t="s">
-        <v>888</v>
+        <v>847</v>
       </c>
       <c r="C6" t="s">
         <v>645</v>
@@ -7004,7 +6911,7 @@
         <v>671</v>
       </c>
       <c r="B7" t="s">
-        <v>889</v>
+        <v>848</v>
       </c>
       <c r="C7" t="s">
         <v>644</v>
@@ -7026,7 +6933,7 @@
         <v>673</v>
       </c>
       <c r="B9" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
       <c r="C9" t="s">
         <v>645</v>
@@ -7037,7 +6944,7 @@
         <v>674</v>
       </c>
       <c r="B10" t="s">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="C10" t="s">
         <v>645</v>
@@ -7427,7 +7334,7 @@
         <v>713</v>
       </c>
       <c r="B49" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="C49" t="s">
         <v>643</v>
@@ -7438,7 +7345,7 @@
         <v>714</v>
       </c>
       <c r="B50" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
       <c r="C50" t="s">
         <v>643</v>
@@ -7449,7 +7356,7 @@
         <v>715</v>
       </c>
       <c r="B51" t="s">
-        <v>894</v>
+        <v>853</v>
       </c>
       <c r="C51" t="s">
         <v>643</v>
@@ -7460,7 +7367,7 @@
         <v>716</v>
       </c>
       <c r="B52" t="s">
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="C52" t="s">
         <v>643</v>
@@ -7471,13 +7378,13 @@
         <v>717</v>
       </c>
       <c r="B53" t="s">
-        <v>896</v>
+        <v>855</v>
       </c>
       <c r="C53" t="s">
         <v>644</v>
       </c>
       <c r="D53" t="s">
-        <v>897</v>
+        <v>856</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -7485,10 +7392,13 @@
         <v>718</v>
       </c>
       <c r="B54" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
       <c r="C54" t="s">
         <v>645</v>
+      </c>
+      <c r="D54" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -7496,13 +7406,13 @@
         <v>719</v>
       </c>
       <c r="B55" t="s">
-        <v>899</v>
+        <v>931</v>
       </c>
       <c r="C55" t="s">
         <v>645</v>
       </c>
       <c r="D55" t="s">
-        <v>993</v>
+        <v>936</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -7510,31 +7420,31 @@
         <v>720</v>
       </c>
       <c r="B56" t="s">
-        <v>994</v>
+        <v>932</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>721</v>
       </c>
+      <c r="B57" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>722</v>
       </c>
+      <c r="B58" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>723</v>
       </c>
       <c r="B59" t="s">
-        <v>995</v>
-      </c>
-      <c r="C59" t="s">
-        <v>645</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1000</v>
+        <v>935</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -7542,7 +7452,10 @@
         <v>724</v>
       </c>
       <c r="B60" t="s">
-        <v>996</v>
+        <v>937</v>
+      </c>
+      <c r="C60" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -7550,7 +7463,10 @@
         <v>725</v>
       </c>
       <c r="B61" t="s">
-        <v>997</v>
+        <v>938</v>
+      </c>
+      <c r="C61" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -7558,51 +7474,48 @@
         <v>726</v>
       </c>
       <c r="B62" t="s">
-        <v>998</v>
+        <v>939</v>
+      </c>
+      <c r="C62" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>727</v>
       </c>
-      <c r="B63" t="s">
-        <v>999</v>
+      <c r="C63" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>728</v>
       </c>
-      <c r="B64" t="s">
-        <v>1001</v>
-      </c>
       <c r="C64" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>729</v>
       </c>
-      <c r="B65" t="s">
-        <v>1002</v>
-      </c>
       <c r="C65" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>730</v>
       </c>
       <c r="B66" t="s">
-        <v>1003</v>
+        <v>941</v>
       </c>
       <c r="C66" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>731</v>
       </c>
@@ -7610,7 +7523,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>732</v>
       </c>
@@ -7618,273 +7531,324 @@
         <v>644</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>733</v>
       </c>
+      <c r="B69" t="s">
+        <v>942</v>
+      </c>
       <c r="C69" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>734</v>
       </c>
       <c r="B70" t="s">
-        <v>1005</v>
+        <v>943</v>
       </c>
       <c r="C70" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+      <c r="D70" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>735</v>
       </c>
+      <c r="B71" t="s">
+        <v>944</v>
+      </c>
       <c r="C71" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>736</v>
       </c>
+      <c r="B72" t="s">
+        <v>945</v>
+      </c>
       <c r="C72" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>737</v>
       </c>
       <c r="B73" t="s">
-        <v>1006</v>
+        <v>947</v>
       </c>
       <c r="C73" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>738</v>
       </c>
+      <c r="B74" t="s">
+        <v>949</v>
+      </c>
       <c r="C74" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>739</v>
       </c>
+      <c r="B75" t="s">
+        <v>950</v>
+      </c>
       <c r="C75" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>740</v>
       </c>
       <c r="B76" t="s">
-        <v>1007</v>
+        <v>951</v>
       </c>
       <c r="C76" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+      <c r="D76" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>741</v>
       </c>
-      <c r="B77" t="s">
-        <v>1008</v>
-      </c>
       <c r="C77" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>742</v>
       </c>
+      <c r="B78" t="s">
+        <v>953</v>
+      </c>
       <c r="C78" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>743</v>
       </c>
+      <c r="B79" t="s">
+        <v>954</v>
+      </c>
       <c r="C79" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>744</v>
       </c>
       <c r="B80" t="s">
-        <v>1009</v>
+        <v>955</v>
       </c>
       <c r="C80" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>745</v>
       </c>
       <c r="B81" t="s">
-        <v>1010</v>
+        <v>956</v>
       </c>
       <c r="C81" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>746</v>
       </c>
+      <c r="B82" t="s">
+        <v>957</v>
+      </c>
       <c r="C82" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>747</v>
       </c>
+      <c r="B83" t="s">
+        <v>958</v>
+      </c>
       <c r="C83" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>748</v>
       </c>
+      <c r="B84" t="s">
+        <v>959</v>
+      </c>
       <c r="C84" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>749</v>
       </c>
+      <c r="B85" t="s">
+        <v>960</v>
+      </c>
       <c r="C85" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>750</v>
       </c>
       <c r="B86" t="s">
-        <v>1011</v>
+        <v>961</v>
       </c>
       <c r="C86" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>751</v>
       </c>
+      <c r="B87" t="s">
+        <v>962</v>
+      </c>
       <c r="C87" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>752</v>
       </c>
+      <c r="B88" t="s">
+        <v>964</v>
+      </c>
       <c r="C88" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>753</v>
       </c>
+      <c r="B89" t="s">
+        <v>965</v>
+      </c>
       <c r="C89" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>754</v>
       </c>
+      <c r="B90" t="s">
+        <v>966</v>
+      </c>
       <c r="C90" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>755</v>
       </c>
+      <c r="B91" t="s">
+        <v>967</v>
+      </c>
       <c r="C91" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>756</v>
       </c>
       <c r="B92" t="s">
-        <v>1012</v>
+        <v>968</v>
       </c>
       <c r="C92" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>757</v>
       </c>
       <c r="B93" t="s">
-        <v>1013</v>
+        <v>969</v>
       </c>
       <c r="C93" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>758</v>
       </c>
+      <c r="B94" t="s">
+        <v>970</v>
+      </c>
       <c r="C94" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>759</v>
       </c>
       <c r="B95" t="s">
-        <v>1014</v>
+        <v>972</v>
       </c>
       <c r="C95" t="s">
         <v>643</v>
       </c>
-      <c r="D95" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>760</v>
       </c>
       <c r="B96" t="s">
-        <v>1016</v>
+        <v>973</v>
       </c>
       <c r="C96" t="s">
-        <v>645</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1017</v>
+        <v>971</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>761</v>
       </c>
+      <c r="B97" t="s">
+        <v>974</v>
+      </c>
       <c r="C97" t="s">
         <v>644</v>
       </c>
@@ -7894,10 +7858,10 @@
         <v>762</v>
       </c>
       <c r="B98" t="s">
-        <v>1018</v>
+        <v>975</v>
       </c>
       <c r="C98" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
@@ -7905,27 +7869,30 @@
         <v>763</v>
       </c>
       <c r="B99" t="s">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="C99" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1021</v>
+        <v>643</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>764</v>
       </c>
+      <c r="B100" t="s">
+        <v>977</v>
+      </c>
       <c r="C100" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>765</v>
       </c>
+      <c r="B101" t="s">
+        <v>978</v>
+      </c>
       <c r="C101" t="s">
         <v>644</v>
       </c>
@@ -7935,10 +7902,10 @@
         <v>766</v>
       </c>
       <c r="B102" t="s">
-        <v>1022</v>
+        <v>979</v>
       </c>
       <c r="C102" t="s">
-        <v>1023</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -7946,10 +7913,10 @@
         <v>767</v>
       </c>
       <c r="B103" t="s">
-        <v>1024</v>
+        <v>981</v>
       </c>
       <c r="C103" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
@@ -7957,7 +7924,7 @@
         <v>768</v>
       </c>
       <c r="B104" t="s">
-        <v>1025</v>
+        <v>982</v>
       </c>
       <c r="C104" t="s">
         <v>643</v>
@@ -7968,10 +7935,10 @@
         <v>769</v>
       </c>
       <c r="B105" t="s">
-        <v>1026</v>
+        <v>983</v>
       </c>
       <c r="C105" t="s">
-        <v>1023</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -7979,21 +7946,24 @@
         <v>770</v>
       </c>
       <c r="B106" t="s">
-        <v>1027</v>
+        <v>984</v>
       </c>
       <c r="C106" t="s">
         <v>645</v>
       </c>
       <c r="D106" t="s">
-        <v>1028</v>
+        <v>985</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>771</v>
       </c>
+      <c r="B107" t="s">
+        <v>986</v>
+      </c>
       <c r="C107" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -8001,10 +7971,10 @@
         <v>772</v>
       </c>
       <c r="B108" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C108" t="s">
-        <v>644</v>
+        <v>987</v>
+      </c>
+      <c r="D108" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
@@ -8012,7 +7982,7 @@
         <v>773</v>
       </c>
       <c r="B109" t="s">
-        <v>1030</v>
+        <v>989</v>
       </c>
       <c r="C109" t="s">
         <v>645</v>
@@ -8023,10 +7993,10 @@
         <v>774</v>
       </c>
       <c r="B110" t="s">
-        <v>1031</v>
+        <v>990</v>
       </c>
       <c r="C110" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -8034,10 +8004,10 @@
         <v>775</v>
       </c>
       <c r="B111" t="s">
-        <v>1032</v>
+        <v>991</v>
       </c>
       <c r="C111" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
@@ -8045,222 +8015,312 @@
         <v>776</v>
       </c>
       <c r="B112" t="s">
-        <v>1033</v>
+        <v>992</v>
       </c>
       <c r="C112" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>777</v>
       </c>
       <c r="B113" t="s">
-        <v>1034</v>
+        <v>993</v>
       </c>
       <c r="C113" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>778</v>
       </c>
       <c r="B114" t="s">
-        <v>1035</v>
+        <v>994</v>
       </c>
       <c r="C114" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>779</v>
       </c>
       <c r="B115" t="s">
-        <v>1036</v>
+        <v>995</v>
       </c>
       <c r="C115" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>780</v>
       </c>
       <c r="B116" t="s">
-        <v>1037</v>
+        <v>997</v>
       </c>
       <c r="C116" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>781</v>
       </c>
-      <c r="B117" t="s">
-        <v>1038</v>
-      </c>
       <c r="C117" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>782</v>
       </c>
-      <c r="B118" t="s">
-        <v>1039</v>
-      </c>
       <c r="C118" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>783</v>
       </c>
-      <c r="B119" t="s">
-        <v>1040</v>
-      </c>
       <c r="C119" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>784</v>
       </c>
-      <c r="B120" t="s">
-        <v>1042</v>
-      </c>
       <c r="C120" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>785</v>
       </c>
-      <c r="B121" t="s">
-        <v>1043</v>
-      </c>
       <c r="C121" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B125" t="s">
+        <v>980</v>
+      </c>
+      <c r="C125" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B127" t="s">
+        <v>999</v>
+      </c>
+      <c r="C127" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B128" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C128" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B129" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C129" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B130" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C130" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B131" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C131" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B132" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C132" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B133" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C133" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B134" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C134" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B135" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C135" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B136" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C136" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B137" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C137" t="s">
+        <v>645</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B138" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C138" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B139" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C139" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>808</v>
       </c>
@@ -8447,672 +8507,362 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>845</v>
+        <v>929</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>849</v>
+        <v>861</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>850</v>
+        <v>862</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>851</v>
+        <v>863</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>852</v>
+        <v>864</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>853</v>
+        <v>865</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>854</v>
+        <v>866</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>855</v>
+        <v>867</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>856</v>
+        <v>868</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>857</v>
+        <v>869</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>858</v>
+        <v>870</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>859</v>
+        <v>871</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>861</v>
+        <v>873</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>864</v>
+        <v>876</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>865</v>
+        <v>877</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>866</v>
+        <v>878</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>867</v>
+        <v>879</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>869</v>
+        <v>881</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>870</v>
+        <v>882</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>871</v>
+        <v>883</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>872</v>
+        <v>884</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>873</v>
+        <v>885</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>874</v>
+        <v>886</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>875</v>
+        <v>887</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>877</v>
+        <v>889</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>878</v>
+        <v>890</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>879</v>
+        <v>891</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>880</v>
+        <v>892</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>881</v>
+        <v>893</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>882</v>
+        <v>894</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>883</v>
+        <v>895</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>884</v>
+        <v>896</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>885</v>
+        <v>897</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>992</v>
+        <v>898</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A296" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A299" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A302" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A303" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A304" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A305" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A306" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A307" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A308" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A309" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A310" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A311" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A312" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>991</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
